--- a/OW_3/dane/dane.xlsx
+++ b/OW_3/dane/dane.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szyme\Documents\Studia\IX Semestr\Optymalizacja wielokryterialna\OW_SS_KK_LS\OW_3\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D502B5B-F843-4AB3-B8E8-90D5E37B3DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974BC206-6791-449F-A067-726DFEB25614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1670" yWindow="650" windowWidth="15820" windowHeight="10310" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
+    <workbookView xWindow="2030" yWindow="800" windowWidth="15820" windowHeight="10310" activeTab="1" xr2:uid="{070E1390-B346-4D6E-9655-687A5B922D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>0.5</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t>0.4</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
 </sst>
 </file>
@@ -456,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4BE1F9-D1DA-4BDC-B1E4-D7BAEE8C7B35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,4 +644,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DE796-911F-4EB2-B892-48C8FCDA5AFE}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>